--- a/src/Sorce/balanceML.xlsx
+++ b/src/Sorce/balanceML.xlsx
@@ -19,7 +19,7 @@
     <t>Формирвоание отчета</t>
   </si>
   <si>
-    <t>Период: на 17.01.2025 10:45:11</t>
+    <t>Период: на 20.01.2025 10:55:12</t>
   </si>
   <si>
     <t>Показатели: Свободный остаток(В ед. хранения);</t>
